--- a/data/trans_dic/P2A_enfcro_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_enfcro_R-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1867369368019311</v>
+        <v>0.1863646093287127</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2744565779128775</v>
+        <v>0.2711461397017107</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2516967638064826</v>
+        <v>0.2530555647916624</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1426182962965181</v>
+        <v>0.1459290688173059</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3221208536025116</v>
+        <v>0.3198676398638302</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3654660177618101</v>
+        <v>0.3622057512118867</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.302405958681808</v>
+        <v>0.3014887690187422</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1770375024235451</v>
+        <v>0.1725574371897504</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2622276065339308</v>
+        <v>0.263006461268137</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3298367555143804</v>
+        <v>0.3255935525933797</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2908291874346655</v>
+        <v>0.2885817136814602</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1713045411247844</v>
+        <v>0.1741392112171853</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.257893491289474</v>
+        <v>0.2594161269296075</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3592512253311999</v>
+        <v>0.3555662415976653</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3404225030274415</v>
+        <v>0.3441804619473645</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2689784668731481</v>
+        <v>0.274244315497453</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.407998626776144</v>
+        <v>0.4071352461930344</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4595365364064551</v>
+        <v>0.4579893501002375</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3957764290362796</v>
+        <v>0.3952388599037724</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3012129384417618</v>
+        <v>0.2887204169250191</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3205867190854025</v>
+        <v>0.3218578482684346</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3971572814066553</v>
+        <v>0.3916401038806586</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3544179374749333</v>
+        <v>0.3553973926553449</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2595060075783051</v>
+        <v>0.2627581866124793</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.399145914853039</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2176823254852133</v>
+        <v>0.2176823254852134</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3487743738199231</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2432725359018365</v>
+        <v>0.239783398365566</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3477849053590262</v>
+        <v>0.346415946954916</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2469416300227038</v>
+        <v>0.2489742988252637</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1638679137487365</v>
+        <v>0.1625463711063425</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3956780617226451</v>
+        <v>0.3976457354680754</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4350793838716097</v>
+        <v>0.4314339248080588</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3572635214246221</v>
+        <v>0.3608295177272881</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1817550050732371</v>
+        <v>0.1834161265803515</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3239343101484022</v>
+        <v>0.3237314718651946</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4019347574449472</v>
+        <v>0.3993490049920148</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3135744890623091</v>
+        <v>0.3124696567704648</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1875071305492598</v>
+        <v>0.1833132184699219</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3095854012103417</v>
+        <v>0.3087331120261315</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.423431134937228</v>
+        <v>0.4236653497628501</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3211943598136436</v>
+        <v>0.3243980033048667</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2589589744290721</v>
+        <v>0.2592854587708066</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4791838991550266</v>
+        <v>0.4780666267852977</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5171670334524</v>
+        <v>0.5167837036793806</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4384302442419655</v>
+        <v>0.4394450487283634</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2592155201263384</v>
+        <v>0.2641466387571637</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3761269098275752</v>
+        <v>0.3755177715338062</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.461802348365885</v>
+        <v>0.4552879956031776</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3691143975677008</v>
+        <v>0.3690416199092774</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2475866551348732</v>
+        <v>0.2472930106486358</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.4047024911228617</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2260773301698846</v>
+        <v>0.2260773301698845</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2997140577124374</v>
+        <v>0.3016853037150077</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3719713914978202</v>
+        <v>0.3694882744148827</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2981734072803034</v>
+        <v>0.2948399143759107</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1661929208499295</v>
+        <v>0.1671662322108001</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4741547982838528</v>
+        <v>0.4753651584443315</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5316187048453991</v>
+        <v>0.5318499944328465</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4368789605829</v>
+        <v>0.44054344145734</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2238225413226997</v>
+        <v>0.2232363218773081</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4015734065405305</v>
+        <v>0.4006905672628766</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.457530186020246</v>
+        <v>0.4651551499353065</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3788729955379924</v>
+        <v>0.3762168612453071</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2052091531938701</v>
+        <v>0.2047981244094885</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3761693935572731</v>
+        <v>0.3759511816297879</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4481320458799761</v>
+        <v>0.4503203066202001</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3711756394382419</v>
+        <v>0.3724910555423383</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2355058860253434</v>
+        <v>0.2333962871515323</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5524022855909593</v>
+        <v>0.5539011581342381</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6067453790801447</v>
+        <v>0.6068138129578113</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5121111856717628</v>
+        <v>0.5140347728427228</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2835161899403147</v>
+        <v>0.2845338576751089</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4547403426654511</v>
+        <v>0.4569884628745149</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5192651618930868</v>
+        <v>0.5212974895647776</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4312906847467456</v>
+        <v>0.4321685628699705</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2496932940626793</v>
+        <v>0.249039016532977</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.516393760097853</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2995681306201929</v>
+        <v>0.2995681306201928</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.6318849553690946</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4305228913375644</v>
+        <v>0.4267579379608673</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4578726087526039</v>
+        <v>0.4538516898558314</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4730358836504923</v>
+        <v>0.474275191323582</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2653471067616753</v>
+        <v>0.262219867951084</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5860730762882171</v>
+        <v>0.5875538085000112</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.666087610820445</v>
+        <v>0.6673233093264789</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5538600409501301</v>
+        <v>0.5542929836497175</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3316463433057651</v>
+        <v>0.3272367471173862</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.517450222830676</v>
+        <v>0.5228174683044043</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5747412034431388</v>
+        <v>0.5756148489673433</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5247165723052137</v>
+        <v>0.5249667244516583</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3067090331764257</v>
+        <v>0.306792690027539</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5188343672976592</v>
+        <v>0.5157740774861024</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5481819213981783</v>
+        <v>0.5452183310830674</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5582424485203739</v>
+        <v>0.5577905843675485</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3368441693564601</v>
+        <v>0.331589213351061</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6727407794452342</v>
+        <v>0.6710307137947547</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7464841362069951</v>
+        <v>0.7452657454878912</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.629637835307626</v>
+        <v>0.6318079890917813</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3857913201591771</v>
+        <v>0.3839704409689064</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5835617659569933</v>
+        <v>0.5840402759294415</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6347016767490531</v>
+        <v>0.6329974038571919</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5815828782926696</v>
+        <v>0.5835214471459326</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3538399885680485</v>
+        <v>0.350162205777993</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.6390676035604254</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4281078519907922</v>
+        <v>0.4281078519907921</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.7739406385925023</v>
@@ -1229,7 +1229,7 @@
         <v>0.7876805676931274</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.4957821030506586</v>
+        <v>0.4957821030506587</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.7419840496315694</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6614099907552132</v>
+        <v>0.661649624489139</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7128804156301749</v>
+        <v>0.7094806367946691</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.591073901172009</v>
+        <v>0.5923741239241804</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3920548537880665</v>
+        <v>0.3890244820609635</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7306140319839559</v>
+        <v>0.7313798728410479</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8178075543677454</v>
+        <v>0.8236387925180846</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7462455498826551</v>
+        <v>0.7445211188535941</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4661739537156907</v>
+        <v>0.4633049820127625</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7104350229364137</v>
+        <v>0.7132926321396844</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7804620708466862</v>
+        <v>0.7830929094216393</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.6856156515995687</v>
+        <v>0.6819916654774257</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4355364087872616</v>
+        <v>0.4343439844337325</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.753155341114304</v>
+        <v>0.7528609824272542</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7979054337112628</v>
+        <v>0.7978006907630378</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6839535872912839</v>
+        <v>0.684279634391975</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.467410637138162</v>
+        <v>0.4671175808070586</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8152446307427434</v>
+        <v>0.8126302345077434</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8891725860040026</v>
+        <v>0.8945380927184294</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8253697323232586</v>
+        <v>0.8242149466549029</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5272298274374005</v>
+        <v>0.5266915716407314</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7697525410648764</v>
+        <v>0.7744907914484185</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.8369277934325174</v>
+        <v>0.8362836902753635</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7453312266644576</v>
+        <v>0.7435077755154254</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4889707107385216</v>
+        <v>0.4843821622466777</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.889151110316355</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.5941158971895076</v>
+        <v>0.5941158971895075</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.8320505402956658</v>
@@ -1377,7 +1377,7 @@
         <v>0.8826105830103259</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.5319439652329996</v>
+        <v>0.5319439652329997</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7147203094074909</v>
+        <v>0.7175144970889838</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8892834106312701</v>
+        <v>0.8914062278417114</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.836386609582893</v>
+        <v>0.8303998733378756</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4194018971756511</v>
+        <v>0.4261079511853277</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8506524377421203</v>
+        <v>0.8503192949821584</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.9152252814095643</v>
+        <v>0.9157307785669222</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8478487447782641</v>
+        <v>0.851495026965287</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5597100938445965</v>
+        <v>0.5584297399230916</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.8012593481066971</v>
+        <v>0.8029111657396545</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.9168683379499223</v>
+        <v>0.9140428878817271</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.856409501144195</v>
+        <v>0.8537538896677525</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.5038629956535235</v>
+        <v>0.5057518954734153</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8141403674575545</v>
+        <v>0.8145163228240153</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9541059419662405</v>
+        <v>0.9549220335197439</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9079126876331484</v>
+        <v>0.9052395789012705</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5095379882440374</v>
+        <v>0.5070563694611326</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9169504872151205</v>
+        <v>0.9173546918716813</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9642188296474099</v>
+        <v>0.9660855822001593</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.917549181498888</v>
+        <v>0.9204347005255875</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6270868322634566</v>
+        <v>0.6251567965798426</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.8611829902718299</v>
+        <v>0.8603521389403136</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.9532894589297162</v>
+        <v>0.9543960186695588</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.9047032624530097</v>
+        <v>0.9057394371037225</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.5585133507447623</v>
+        <v>0.5568009482846292</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.9616012797171285</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.661917483547152</v>
+        <v>0.6619174835471519</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.8880066180976932</v>
@@ -1513,7 +1513,7 @@
         <v>0.949997406901895</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.649550057769602</v>
+        <v>0.6495500577696018</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8235962135832986</v>
+        <v>0.8162327859769255</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9183727286453014</v>
+        <v>0.9206265729802401</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8983786670686189</v>
+        <v>0.8972381494930087</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.586161055966501</v>
+        <v>0.5876004630221621</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8602714462247024</v>
+        <v>0.8577430610966258</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9477626701882483</v>
+        <v>0.9465188210518876</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9357629005442363</v>
+        <v>0.9326752854321211</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6265614892702034</v>
+        <v>0.6297829561016933</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.8585484774617048</v>
+        <v>0.859887480785119</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.9447123060332601</v>
+        <v>0.9435208032068351</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.9289727704765532</v>
+        <v>0.9301828205605366</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.6221271742675549</v>
+        <v>0.6232057128942839</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9122701647241356</v>
+        <v>0.9090270999333951</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.974405042022353</v>
+        <v>0.9753129114328181</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9571788230799516</v>
+        <v>0.9554526064018828</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6788879587296179</v>
+        <v>0.6778093244375191</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9286995228694648</v>
+        <v>0.9289400101490758</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9852617111568687</v>
+        <v>0.9852456294088635</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9773633327377155</v>
+        <v>0.9776721180240566</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6932882246256348</v>
+        <v>0.6934171983098277</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9144742651204787</v>
+        <v>0.914473566927032</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.9760825075628815</v>
+        <v>0.9757988443096509</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9642128987255186</v>
+        <v>0.9644690176656855</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.6778259614083281</v>
+        <v>0.6783124765126127</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4249510226216046</v>
+        <v>0.427944986904724</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.5200356809354589</v>
+        <v>0.5193627601244921</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4791758801188047</v>
+        <v>0.4804664174383064</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3125719783609309</v>
+        <v>0.3124399584707312</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.5865265152865727</v>
+        <v>0.587817075332582</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6601338365420476</v>
+        <v>0.659610090325742</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.5961827988013536</v>
+        <v>0.5979066979750358</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3830466159447068</v>
+        <v>0.3823447356682616</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.5112409849273009</v>
+        <v>0.5137370196283521</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.5957684434175808</v>
+        <v>0.5958140555911067</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.5448172685143606</v>
+        <v>0.5435196737757257</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.3527466889604401</v>
+        <v>0.3525076701828668</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4602890864399785</v>
+        <v>0.4625229735471664</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5540675827139039</v>
+        <v>0.5558982610519254</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5138827481849355</v>
+        <v>0.5155657601347958</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3465911682209585</v>
+        <v>0.3458490884432784</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.6188490451500129</v>
+        <v>0.6198199262428633</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.6913946947942763</v>
+        <v>0.6917199729553822</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.6287630837305335</v>
+        <v>0.6305770440981406</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4116411238320196</v>
+        <v>0.4116545634969717</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.5366915484612661</v>
+        <v>0.5378804098693706</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.620052955198685</v>
+        <v>0.6202370141580524</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.5679689396079676</v>
+        <v>0.568117186863942</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3754536509548334</v>
+        <v>0.3747462531271659</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>92260</v>
+        <v>92076</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>124643</v>
+        <v>123140</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>105577</v>
+        <v>106147</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>58159</v>
+        <v>59509</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>150588</v>
+        <v>149535</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>157234</v>
+        <v>155832</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>119679</v>
+        <v>119316</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>64178</v>
+        <v>62554</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>252146</v>
+        <v>252895</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>291700</v>
+        <v>287947</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>237089</v>
+        <v>235257</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>131957</v>
+        <v>134140</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>127416</v>
+        <v>128168</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>163153</v>
+        <v>161479</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>142795</v>
+        <v>144371</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>109688</v>
+        <v>111835</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>190735</v>
+        <v>190331</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>197706</v>
+        <v>197041</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>156631</v>
+        <v>156418</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>109193</v>
+        <v>104665</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>308261</v>
+        <v>309483</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>351236</v>
+        <v>346357</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>288928</v>
+        <v>289726</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>199899</v>
+        <v>202404</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>178924</v>
+        <v>176358</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>238958</v>
+        <v>238018</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>145818</v>
+        <v>147018</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>78147</v>
+        <v>77517</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>247494</v>
+        <v>248725</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>265509</v>
+        <v>263285</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>201334</v>
+        <v>203343</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>91192</v>
+        <v>92026</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>440869</v>
+        <v>440593</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>521447</v>
+        <v>518092</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>361878</v>
+        <v>360602</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>183499</v>
+        <v>179395</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>227697</v>
+        <v>227070</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>290934</v>
+        <v>291095</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>189664</v>
+        <v>191556</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>123495</v>
+        <v>123651</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>299727</v>
+        <v>299028</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>315604</v>
+        <v>315370</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>247075</v>
+        <v>247647</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>130057</v>
+        <v>132531</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>511902</v>
+        <v>511073</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>599116</v>
+        <v>590664</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>425973</v>
+        <v>425889</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>242294</v>
+        <v>242007</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>191418</v>
+        <v>192677</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>253634</v>
+        <v>251940</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>199507</v>
+        <v>197277</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>103179</v>
+        <v>103783</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>327045</v>
+        <v>327880</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>377901</v>
+        <v>378066</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>288946</v>
+        <v>291369</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>139485</v>
+        <v>139119</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>533455</v>
+        <v>532282</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>637208</v>
+        <v>647827</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>504084</v>
+        <v>500550</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>255286</v>
+        <v>254775</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>240247</v>
+        <v>240108</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>305565</v>
+        <v>307057</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>248353</v>
+        <v>249233</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>146211</v>
+        <v>144901</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>381016</v>
+        <v>382050</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>431305</v>
+        <v>431354</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>338703</v>
+        <v>339975</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>176685</v>
+        <v>177320</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>604083</v>
+        <v>607069</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>723187</v>
+        <v>726017</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>573825</v>
+        <v>574993</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>310626</v>
+        <v>309812</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>223505</v>
+        <v>221550</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>281416</v>
+        <v>278945</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>305604</v>
+        <v>306405</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>185907</v>
+        <v>183716</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>302204</v>
+        <v>302967</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>410443</v>
+        <v>411204</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>359498</v>
+        <v>359779</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>244386</v>
+        <v>241136</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>535452</v>
+        <v>541006</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>707401</v>
+        <v>708476</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>679574</v>
+        <v>679898</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>440895</v>
+        <v>441016</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>269351</v>
+        <v>267763</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>336922</v>
+        <v>335100</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>360651</v>
+        <v>360359</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>235999</v>
+        <v>232317</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>346893</v>
+        <v>346012</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>459983</v>
+        <v>459232</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>408683</v>
+        <v>410092</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>284284</v>
+        <v>282942</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>603863</v>
+        <v>604358</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>781201</v>
+        <v>779103</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>753223</v>
+        <v>755733</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>508646</v>
+        <v>503360</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>255774</v>
+        <v>255867</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>306132</v>
+        <v>304672</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>282485</v>
+        <v>283106</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>238897</v>
+        <v>237051</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>295158</v>
+        <v>295467</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>366214</v>
+        <v>368825</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>370771</v>
+        <v>369915</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>283832</v>
+        <v>282086</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>561738</v>
+        <v>563998</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>684644</v>
+        <v>686952</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>668316</v>
+        <v>664783</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>530571</v>
+        <v>529119</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>291253</v>
+        <v>291139</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>342644</v>
+        <v>342599</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>326874</v>
+        <v>327030</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>284815</v>
+        <v>284636</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>329347</v>
+        <v>328291</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>398171</v>
+        <v>400574</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>410084</v>
+        <v>409510</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>321007</v>
+        <v>320679</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>608640</v>
+        <v>612387</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>734177</v>
+        <v>733612</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>726524</v>
+        <v>724747</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>595665</v>
+        <v>590075</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>209115</v>
+        <v>209933</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>275488</v>
+        <v>276145</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>279629</v>
+        <v>277628</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>170730</v>
+        <v>173460</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>291718</v>
+        <v>291603</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>323986</v>
+        <v>324165</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>320285</v>
+        <v>321662</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>245806</v>
+        <v>245243</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>509214</v>
+        <v>510264</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>608601</v>
+        <v>606725</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>609842</v>
+        <v>607951</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>426392</v>
+        <v>427991</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>238204</v>
+        <v>238314</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>295569</v>
+        <v>295821</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>303542</v>
+        <v>302649</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>207423</v>
+        <v>206413</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>314453</v>
+        <v>314592</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>341330</v>
+        <v>341990</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>346615</v>
+        <v>347705</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>275395</v>
+        <v>274548</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>547296</v>
+        <v>546768</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>632776</v>
+        <v>633511</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>644232</v>
+        <v>644970</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>472640</v>
+        <v>471191</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>172859</v>
+        <v>171313</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>229456</v>
+        <v>230019</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>230882</v>
+        <v>230588</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>181826</v>
+        <v>182272</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>287252</v>
+        <v>286407</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>368660</v>
+        <v>368176</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>374463</v>
+        <v>373228</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>291106</v>
+        <v>292603</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>466871</v>
+        <v>467599</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>603511</v>
+        <v>602749</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>610490</v>
+        <v>611285</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>482028</v>
+        <v>482864</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>191470</v>
+        <v>190789</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>243456</v>
+        <v>243683</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>245993</v>
+        <v>245549</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>210590</v>
+        <v>210255</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>310100</v>
+        <v>310181</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>383246</v>
+        <v>383240</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>391111</v>
+        <v>391234</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>322108</v>
+        <v>322168</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>497283</v>
+        <v>497282</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>623551</v>
+        <v>623370</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>633649</v>
+        <v>633817</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>525184</v>
+        <v>525561</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1392370</v>
+        <v>1402180</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1782047</v>
+        <v>1779741</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1626491</v>
+        <v>1630871</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1104242</v>
+        <v>1103776</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1981989</v>
+        <v>1986350</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2348960</v>
+        <v>2347097</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2113195</v>
+        <v>2119305</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1431428</v>
+        <v>1428805</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>3402688</v>
+        <v>3419301</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>4161495</v>
+        <v>4161814</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>3780428</v>
+        <v>3771424</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>2564368</v>
+        <v>2562631</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1508157</v>
+        <v>1515476</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1898667</v>
+        <v>1904940</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1744298</v>
+        <v>1750011</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1224424</v>
+        <v>1221803</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>2091213</v>
+        <v>2094494</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>2460196</v>
+        <v>2461353</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>2228677</v>
+        <v>2235107</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1538284</v>
+        <v>1538334</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>3572080</v>
+        <v>3579993</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>4331124</v>
+        <v>4332410</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>3941075</v>
+        <v>3942104</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>2729441</v>
+        <v>2724299</v>
       </c>
     </row>
     <row r="36">
